--- a/data/input/absenteeism_data_13.xlsx
+++ b/data/input/absenteeism_data_13.xlsx
@@ -476,11 +476,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3606</v>
+        <v>54101</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mirella Novaes</t>
+          <t>Sr. Arthur Gonçalves</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -490,31 +490,31 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45101</v>
+        <v>45104</v>
       </c>
       <c r="G2" t="n">
-        <v>2525.23</v>
+        <v>3670.47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>94755</v>
+        <v>26510</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Luiz Fernando Freitas</t>
+          <t>Lavínia Rodrigues</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,85 +523,85 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45081</v>
+        <v>45083</v>
       </c>
       <c r="G3" t="n">
-        <v>11981.52</v>
+        <v>2909.55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12737</v>
+        <v>81334</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dra. Alice Moreira</t>
+          <t>Vitor Gabriel Aragão</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45088</v>
+        <v>45096</v>
       </c>
       <c r="G4" t="n">
-        <v>8636.870000000001</v>
+        <v>6487.64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>72580</v>
+        <v>56355</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dra. Eduarda Lopes</t>
+          <t>Leonardo Monteiro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45105</v>
+        <v>45089</v>
       </c>
       <c r="G5" t="n">
-        <v>4046.42</v>
+        <v>7552.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>36668</v>
+        <v>84156</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sr. Pedro Henrique Carvalho</t>
+          <t>Ana Beatriz Martins</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,158 +610,158 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45105</v>
+        <v>45101</v>
       </c>
       <c r="G6" t="n">
-        <v>5978.05</v>
+        <v>9555.620000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>72295</v>
+        <v>20815</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Laís Pires</t>
+          <t>Noah da Luz</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45085</v>
+        <v>45093</v>
       </c>
       <c r="G7" t="n">
-        <v>4503.84</v>
+        <v>11518.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7018</v>
+        <v>52744</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sr. Caio Carvalho</t>
+          <t>Joana Souza</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45078</v>
+        <v>45090</v>
       </c>
       <c r="G8" t="n">
-        <v>10778.72</v>
+        <v>8274.32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>29625</v>
+        <v>81650</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lucas Gabriel da Conceição</t>
+          <t>Sr. Pedro Lucas Azevedo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45088</v>
+        <v>45087</v>
       </c>
       <c r="G9" t="n">
-        <v>7374.77</v>
+        <v>9979.610000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>71411</v>
+        <v>59092</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Daniela Cunha</t>
+          <t>Sabrina Cardoso</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45079</v>
+        <v>45101</v>
       </c>
       <c r="G10" t="n">
-        <v>5896.14</v>
+        <v>8609.65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>28213</v>
+        <v>88176</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Maria Eduarda Souza</t>
+          <t>Paulo Nunes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45083</v>
+        <v>45099</v>
       </c>
       <c r="G11" t="n">
-        <v>10855.85</v>
+        <v>11350.91</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_13.xlsx
+++ b/data/input/absenteeism_data_13.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>54101</v>
+        <v>17789</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sr. Arthur Gonçalves</t>
+          <t>João Miguel Silveira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45104</v>
+        <v>45092</v>
       </c>
       <c r="G2" t="n">
-        <v>3670.47</v>
+        <v>10144.42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>26510</v>
+        <v>81341</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lavínia Rodrigues</t>
+          <t>Davi Lucca da Mota</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,51 +523,51 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45083</v>
+        <v>45094</v>
       </c>
       <c r="G3" t="n">
-        <v>2909.55</v>
+        <v>7716.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>81334</v>
+        <v>57280</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vitor Gabriel Aragão</t>
+          <t>Enzo Santos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45096</v>
+        <v>45079</v>
       </c>
       <c r="G4" t="n">
-        <v>6487.64</v>
+        <v>6730.29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>56355</v>
+        <v>13846</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Leonardo Monteiro</t>
+          <t>Dr. João Pedro Rocha</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,191 +577,191 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45089</v>
+        <v>45088</v>
       </c>
       <c r="G5" t="n">
-        <v>7552.5</v>
+        <v>6267.78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>84156</v>
+        <v>98070</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana Beatriz Martins</t>
+          <t>Dr. Marcelo da Costa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45101</v>
+        <v>45091</v>
       </c>
       <c r="G6" t="n">
-        <v>9555.620000000001</v>
+        <v>7015.14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>20815</v>
+        <v>22519</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Noah da Luz</t>
+          <t>Enzo Gabriel Jesus</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45093</v>
+        <v>45082</v>
       </c>
       <c r="G7" t="n">
-        <v>11518.7</v>
+        <v>3571.31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>52744</v>
+        <v>47705</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Joana Souza</t>
+          <t>Rodrigo Silva</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45090</v>
+        <v>45084</v>
       </c>
       <c r="G8" t="n">
-        <v>8274.32</v>
+        <v>10372.24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>81650</v>
+        <v>40865</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sr. Pedro Lucas Azevedo</t>
+          <t>Felipe Duarte</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45087</v>
+        <v>45096</v>
       </c>
       <c r="G9" t="n">
-        <v>9979.610000000001</v>
+        <v>4530.62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>59092</v>
+        <v>60391</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sabrina Cardoso</t>
+          <t>Luiz Gustavo Rezende</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45101</v>
+        <v>45080</v>
       </c>
       <c r="G10" t="n">
-        <v>8609.65</v>
+        <v>3144.01</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>88176</v>
+        <v>45363</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Paulo Nunes</t>
+          <t>Luiz Miguel Porto</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45099</v>
+        <v>45092</v>
       </c>
       <c r="G11" t="n">
-        <v>11350.91</v>
+        <v>5182.14</v>
       </c>
     </row>
   </sheetData>
